--- a/tx_fifo_timing_critical_tsmc2ff_meas.xlsx
+++ b/tx_fifo_timing_critical_tsmc2ff_meas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="113">
   <si>
     <t>Process</t>
   </si>
@@ -181,21 +181,21 @@
     <t>40g</t>
   </si>
   <si>
+    <t>tsmc2ff (1)</t>
+  </si>
+  <si>
+    <t>rcworst_ccworst_t</t>
+  </si>
+  <si>
+    <t>-40</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>tsmc2ff (1)</t>
-  </si>
-  <si>
-    <t>rcworst_ccworst_t</t>
-  </si>
-  <si>
-    <t>-40</t>
-  </si>
-  <si>
-    <t>0.675</t>
-  </si>
-  <si>
     <t>tsmc2ff (2)</t>
   </si>
   <si>
@@ -205,7 +205,7 @@
     <t>125</t>
   </si>
   <si>
-    <t>0.825</t>
+    <t>0.788</t>
   </si>
   <si>
     <t>tsmc2ff (4)</t>
@@ -884,97 +884,97 @@
       <c r="M2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>55</v>
+      <c r="N2">
+        <v>31.4398</v>
+      </c>
+      <c r="O2">
+        <v>23.8886</v>
+      </c>
+      <c r="P2">
+        <v>26.8235</v>
+      </c>
+      <c r="Q2">
+        <v>17.5907</v>
+      </c>
+      <c r="R2">
+        <v>0.5597329999999999</v>
+      </c>
+      <c r="S2">
+        <v>46.3637</v>
+      </c>
+      <c r="T2">
+        <v>51.2161</v>
+      </c>
+      <c r="U2">
+        <v>49.7594</v>
+      </c>
+      <c r="V2">
+        <v>49.9641</v>
+      </c>
+      <c r="W2">
+        <v>50.2805</v>
+      </c>
+      <c r="X2">
+        <v>50.71210000000001</v>
+      </c>
+      <c r="Y2">
+        <v>50.8549</v>
+      </c>
+      <c r="Z2">
+        <v>51.0254</v>
+      </c>
+      <c r="AA2">
+        <v>28.773</v>
+      </c>
+      <c r="AB2">
+        <v>31.4398</v>
+      </c>
+      <c r="AC2">
+        <v>29.721</v>
+      </c>
+      <c r="AD2">
+        <v>30.2056</v>
+      </c>
+      <c r="AE2">
+        <v>30.2356</v>
+      </c>
+      <c r="AF2">
+        <v>23.8886</v>
+      </c>
+      <c r="AG2">
+        <v>30.8193</v>
+      </c>
+      <c r="AH2">
+        <v>31.2631</v>
+      </c>
+      <c r="AI2">
+        <v>17.5907</v>
+      </c>
+      <c r="AJ2">
+        <v>19.7764</v>
+      </c>
+      <c r="AK2">
+        <v>20.0384</v>
+      </c>
+      <c r="AL2">
+        <v>19.7585</v>
+      </c>
+      <c r="AM2">
+        <v>20.045</v>
+      </c>
+      <c r="AN2">
+        <v>26.8235</v>
+      </c>
+      <c r="AO2">
+        <v>20.0356</v>
+      </c>
+      <c r="AP2">
+        <v>19.7622</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -1001,103 +1001,103 @@
         <v>50</v>
       </c>
       <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="s">
         <v>54</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:42">
@@ -1129,7 +1129,7 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -1141,91 +1141,91 @@
         <v>54</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP4" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:42">
@@ -1257,7 +1257,7 @@
         <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K5" t="s">
         <v>62</v>
@@ -1269,91 +1269,91 @@
         <v>54</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP5" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:42">
@@ -1385,103 +1385,103 @@
         <v>72</v>
       </c>
       <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>58</v>
-      </c>
-      <c r="L6" t="s">
-        <v>59</v>
       </c>
       <c r="M6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP6" s="2" t="s">
-        <v>55</v>
+      <c r="N6">
+        <v>50.70160000000001</v>
+      </c>
+      <c r="O6">
+        <v>38.9854</v>
+      </c>
+      <c r="P6">
+        <v>42.3184</v>
+      </c>
+      <c r="Q6">
+        <v>28.1434</v>
+      </c>
+      <c r="R6">
+        <v>0.431854</v>
+      </c>
+      <c r="S6">
+        <v>69.6978</v>
+      </c>
+      <c r="T6">
+        <v>83.1983</v>
+      </c>
+      <c r="U6">
+        <v>74.79729999999999</v>
+      </c>
+      <c r="V6">
+        <v>80.32640000000001</v>
+      </c>
+      <c r="W6">
+        <v>80.60010000000001</v>
+      </c>
+      <c r="X6">
+        <v>81.3039</v>
+      </c>
+      <c r="Y6">
+        <v>80.92580000000001</v>
+      </c>
+      <c r="Z6">
+        <v>81.85129999999999</v>
+      </c>
+      <c r="AA6">
+        <v>41.5544</v>
+      </c>
+      <c r="AB6">
+        <v>50.70160000000001</v>
+      </c>
+      <c r="AC6">
+        <v>42.1461</v>
+      </c>
+      <c r="AD6">
+        <v>47.833</v>
+      </c>
+      <c r="AE6">
+        <v>47.8963</v>
+      </c>
+      <c r="AF6">
+        <v>38.9854</v>
+      </c>
+      <c r="AG6">
+        <v>48.1985</v>
+      </c>
+      <c r="AH6">
+        <v>49.5881</v>
+      </c>
+      <c r="AI6">
+        <v>28.1434</v>
+      </c>
+      <c r="AJ6">
+        <v>32.4966</v>
+      </c>
+      <c r="AK6">
+        <v>32.6512</v>
+      </c>
+      <c r="AL6">
+        <v>32.4934</v>
+      </c>
+      <c r="AM6">
+        <v>32.7039</v>
+      </c>
+      <c r="AN6">
+        <v>42.3184</v>
+      </c>
+      <c r="AO6">
+        <v>32.7273</v>
+      </c>
+      <c r="AP6">
+        <v>32.2632</v>
       </c>
     </row>
     <row r="7" spans="1:42">
@@ -1513,7 +1513,7 @@
         <v>72</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
@@ -1524,92 +1524,92 @@
       <c r="M7" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="U7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP7" s="2" t="s">
-        <v>55</v>
+      <c r="N7">
+        <v>44.3944</v>
+      </c>
+      <c r="O7">
+        <v>34.3713</v>
+      </c>
+      <c r="P7">
+        <v>36.0052</v>
+      </c>
+      <c r="Q7">
+        <v>23.6027</v>
+      </c>
+      <c r="R7">
+        <v>0.5117360000000001</v>
+      </c>
+      <c r="S7">
+        <v>62.8</v>
+      </c>
+      <c r="T7">
+        <v>71.38130000000001</v>
+      </c>
+      <c r="U7">
+        <v>68.1194</v>
+      </c>
+      <c r="V7">
+        <v>69.33720000000001</v>
+      </c>
+      <c r="W7">
+        <v>68.85860000000001</v>
+      </c>
+      <c r="X7">
+        <v>70.3766</v>
+      </c>
+      <c r="Y7">
+        <v>69.59569999999999</v>
+      </c>
+      <c r="Z7">
+        <v>70.81160000000001</v>
+      </c>
+      <c r="AA7">
+        <v>39.19730000000001</v>
+      </c>
+      <c r="AB7">
+        <v>44.3944</v>
+      </c>
+      <c r="AC7">
+        <v>40.8949</v>
+      </c>
+      <c r="AD7">
+        <v>42.3657</v>
+      </c>
+      <c r="AE7">
+        <v>41.6366</v>
+      </c>
+      <c r="AF7">
+        <v>34.3713</v>
+      </c>
+      <c r="AG7">
+        <v>42.3776</v>
+      </c>
+      <c r="AH7">
+        <v>43.8349</v>
+      </c>
+      <c r="AI7">
+        <v>23.6027</v>
+      </c>
+      <c r="AJ7">
+        <v>26.9869</v>
+      </c>
+      <c r="AK7">
+        <v>27.2245</v>
+      </c>
+      <c r="AL7">
+        <v>26.9715</v>
+      </c>
+      <c r="AM7">
+        <v>27.222</v>
+      </c>
+      <c r="AN7">
+        <v>36.0052</v>
+      </c>
+      <c r="AO7">
+        <v>27.2181</v>
+      </c>
+      <c r="AP7">
+        <v>26.9767</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -1641,7 +1641,7 @@
         <v>72</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s">
         <v>62</v>
@@ -1653,91 +1653,91 @@
         <v>54</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP8" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:42">
@@ -1769,103 +1769,103 @@
         <v>83</v>
       </c>
       <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" t="s">
         <v>57</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>58</v>
-      </c>
-      <c r="L9" t="s">
-        <v>59</v>
       </c>
       <c r="M9" t="s">
         <v>54</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP9" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:42">
@@ -1897,7 +1897,7 @@
         <v>83</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K10" t="s">
         <v>52</v>
@@ -1909,91 +1909,91 @@
         <v>54</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP10" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:42">
@@ -2025,7 +2025,7 @@
         <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
         <v>62</v>
@@ -2037,91 +2037,91 @@
         <v>54</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP11" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:42">
@@ -2153,103 +2153,103 @@
         <v>50</v>
       </c>
       <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
         <v>57</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>58</v>
-      </c>
-      <c r="L12" t="s">
-        <v>59</v>
       </c>
       <c r="M12" t="s">
         <v>54</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:42">
@@ -2281,7 +2281,7 @@
         <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13" t="s">
         <v>52</v>
@@ -2293,91 +2293,91 @@
         <v>54</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP13" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:42">
@@ -2409,7 +2409,7 @@
         <v>50</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K14" t="s">
         <v>62</v>
@@ -2421,91 +2421,91 @@
         <v>54</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP14" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:42">
@@ -2537,103 +2537,103 @@
         <v>72</v>
       </c>
       <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15" t="s">
         <v>57</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>58</v>
-      </c>
-      <c r="L15" t="s">
-        <v>59</v>
       </c>
       <c r="M15" t="s">
         <v>54</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP15" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:42">
@@ -2665,7 +2665,7 @@
         <v>72</v>
       </c>
       <c r="J16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K16" t="s">
         <v>52</v>
@@ -2677,91 +2677,91 @@
         <v>54</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP16" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:42">
@@ -2793,7 +2793,7 @@
         <v>72</v>
       </c>
       <c r="J17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" t="s">
         <v>62</v>
@@ -2805,91 +2805,91 @@
         <v>54</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP17" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:42">
@@ -2921,103 +2921,103 @@
         <v>83</v>
       </c>
       <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18" t="s">
         <v>57</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>58</v>
-      </c>
-      <c r="L18" t="s">
-        <v>59</v>
       </c>
       <c r="M18" t="s">
         <v>54</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:42">
@@ -3049,7 +3049,7 @@
         <v>83</v>
       </c>
       <c r="J19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K19" t="s">
         <v>52</v>
@@ -3061,91 +3061,91 @@
         <v>54</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP19" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:42">
@@ -3177,7 +3177,7 @@
         <v>83</v>
       </c>
       <c r="J20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K20" t="s">
         <v>62</v>
@@ -3189,91 +3189,91 @@
         <v>54</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Y20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="Z20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AH20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AI20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AJ20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AK20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="AP20" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:42" s="1" customFormat="1">
@@ -3408,184 +3408,184 @@
       <c r="M22" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP22" s="1" t="s">
-        <v>55</v>
+      <c r="N22" s="1">
+        <v>31.4398</v>
+      </c>
+      <c r="O22" s="1">
+        <v>23.8886</v>
+      </c>
+      <c r="P22" s="1">
+        <v>26.8235</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>17.5907</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0.431854</v>
+      </c>
+      <c r="S22" s="1">
+        <v>46.3637</v>
+      </c>
+      <c r="T22" s="1">
+        <v>51.2161</v>
+      </c>
+      <c r="U22" s="1">
+        <v>49.7594</v>
+      </c>
+      <c r="V22" s="1">
+        <v>49.9641</v>
+      </c>
+      <c r="W22" s="1">
+        <v>50.2805</v>
+      </c>
+      <c r="X22" s="1">
+        <v>50.71210000000001</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>50.8549</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>51.0254</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>28.773</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>31.4398</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>29.721</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>30.2056</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>30.2356</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>23.8886</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>30.8193</v>
+      </c>
+      <c r="AH22" s="1">
+        <v>31.2631</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>17.5907</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>19.7764</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>20.0384</v>
+      </c>
+      <c r="AL22" s="1">
+        <v>19.7585</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>20.045</v>
+      </c>
+      <c r="AN22" s="1">
+        <v>26.8235</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>20.0356</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>19.7622</v>
       </c>
     </row>
     <row r="23" spans="1:42" s="1" customFormat="1">
       <c r="M23" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="N23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP23" s="1" t="s">
-        <v>55</v>
+      <c r="N23" s="1">
+        <v>50.70160000000001</v>
+      </c>
+      <c r="O23" s="1">
+        <v>38.9854</v>
+      </c>
+      <c r="P23" s="1">
+        <v>42.3184</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>28.1434</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0.5597329999999999</v>
+      </c>
+      <c r="S23" s="1">
+        <v>69.6978</v>
+      </c>
+      <c r="T23" s="1">
+        <v>83.1983</v>
+      </c>
+      <c r="U23" s="1">
+        <v>74.79729999999999</v>
+      </c>
+      <c r="V23" s="1">
+        <v>80.32640000000001</v>
+      </c>
+      <c r="W23" s="1">
+        <v>80.60010000000001</v>
+      </c>
+      <c r="X23" s="1">
+        <v>81.3039</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>80.92580000000001</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>81.85129999999999</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>41.5544</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>50.70160000000001</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>42.1461</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>47.833</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>47.8963</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>38.9854</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>48.1985</v>
+      </c>
+      <c r="AH23" s="1">
+        <v>49.5881</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>28.1434</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>32.4966</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>32.6512</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>32.4934</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>32.7039</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>42.3184</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>32.7273</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>32.2632</v>
       </c>
     </row>
     <row r="24" spans="1:42" s="1" customFormat="1">
@@ -3786,276 +3786,276 @@
       <c r="M28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="N28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP28" s="1" t="s">
-        <v>55</v>
+      <c r="N28" s="1">
+        <v>42.1786</v>
+      </c>
+      <c r="O28" s="1">
+        <v>32.4151</v>
+      </c>
+      <c r="P28" s="1">
+        <v>35.04903333333333</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>23.11226666666667</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.5011076666666666</v>
+      </c>
+      <c r="S28" s="1">
+        <v>59.6205</v>
+      </c>
+      <c r="T28" s="1">
+        <v>68.59856666666667</v>
+      </c>
+      <c r="U28" s="1">
+        <v>64.22536666666666</v>
+      </c>
+      <c r="V28" s="1">
+        <v>66.54256666666667</v>
+      </c>
+      <c r="W28" s="1">
+        <v>66.57973333333335</v>
+      </c>
+      <c r="X28" s="1">
+        <v>67.46420000000001</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>67.12546666666667</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>67.8961</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>36.50823333333334</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>42.1786</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>37.58733333333333</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>40.13476666666667</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>39.92283333333334</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>32.4151</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>40.46513333333333</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>41.56203333333334</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>23.11226666666667</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>26.41996666666667</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>26.63803333333334</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>26.40780000000001</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>26.65696666666667</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>35.04903333333333</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>26.66033333333333</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>26.33403333333334</v>
       </c>
     </row>
     <row r="29" spans="1:42" s="1" customFormat="1">
       <c r="M29" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="N29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP29" s="1" t="s">
-        <v>55</v>
+      <c r="N29" s="1">
+        <v>8.018169451938519</v>
+      </c>
+      <c r="O29" s="1">
+        <v>6.316559263290945</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6.361796000257232</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>4.322056837767047</v>
+      </c>
+      <c r="R29" s="1">
+        <v>0.05274454639949883</v>
+      </c>
+      <c r="S29" s="1">
+        <v>9.787814563357166</v>
+      </c>
+      <c r="T29" s="1">
+        <v>13.20411508617252</v>
+      </c>
+      <c r="U29" s="1">
+        <v>10.586051539749</v>
+      </c>
+      <c r="V29" s="1">
+        <v>12.55188689462886</v>
+      </c>
+      <c r="W29" s="1">
+        <v>12.48237319859044</v>
+      </c>
+      <c r="X29" s="1">
+        <v>12.65770153253214</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>12.40003484520194</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>12.7523627324508</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>5.553638815727536</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>8.018169451938519</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>5.585742292857973</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>7.367229481215371</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>7.311079640442232</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>6.316559263290945</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>7.222755463271771</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>7.651834133649844</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>4.322056837767047</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>5.208450317406212</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>5.16582606000456</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>5.21425851360159</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>5.183395560398178</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>6.361796000257232</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>5.196353847544342</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>5.123704101743406</v>
       </c>
     </row>
     <row r="30" spans="1:42" s="1" customFormat="1">
       <c r="M30" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="N30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="O30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="P30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AE30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AF30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AH30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AL30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP30" s="1" t="s">
-        <v>55</v>
+      <c r="N30" s="1">
+        <v>19.01004170820871</v>
+      </c>
+      <c r="O30" s="1">
+        <v>19.48647162369064</v>
+      </c>
+      <c r="P30" s="1">
+        <v>18.15113113036089</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>18.70027245748454</v>
+      </c>
+      <c r="R30" s="1">
+        <v>10.52559158600624</v>
+      </c>
+      <c r="S30" s="1">
+        <v>16.41686091756555</v>
+      </c>
+      <c r="T30" s="1">
+        <v>19.24838335228461</v>
+      </c>
+      <c r="U30" s="1">
+        <v>16.48266423248499</v>
+      </c>
+      <c r="V30" s="1">
+        <v>18.86294371166254</v>
+      </c>
+      <c r="W30" s="1">
+        <v>18.74800719927351</v>
+      </c>
+      <c r="X30" s="1">
+        <v>18.76210128117156</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>18.47292162120577</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>18.78217266153844</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>15.21201742363376</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>19.01004170820871</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>14.86070385287058</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>18.35622850981743</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>18.31302798425854</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>19.48647162369064</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>17.84933069112612</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>18.41063470663492</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>18.70027245748454</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>19.71406846617096</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>19.3926706050793</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>19.74514542522129</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>19.4448063998211</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>18.15113113036089</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>19.49095603034849</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>19.45658698342223</v>
       </c>
     </row>
     <row r="31" spans="1:42" s="1" customFormat="1"/>
